--- a/ubs_em_funcionamento/documentos/Recursos Ontólogicos reutilizados - UBS em Funcionamento.xlsx
+++ b/ubs_em_funcionamento/documentos/Recursos Ontólogicos reutilizados - UBS em Funcionamento.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\dissertacao_mestrado\ubs_em_funcionamento\documentos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E33A57-ADF5-4C1D-A6F5-999ABAFCB8FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Página1" sheetId="1" r:id="rId4"/>
+    <sheet name="Página1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>Vocabulário</t>
   </si>
@@ -37,15 +46,9 @@
     <t>vcard</t>
   </si>
   <si>
-    <t>vcard:locality</t>
-  </si>
-  <si>
     <t>Data Property</t>
   </si>
   <si>
-    <t>http://www.w3.org/2006/vcard/ns#locality</t>
-  </si>
-  <si>
     <t>UBS vcard:locality cidade</t>
   </si>
   <si>
@@ -62,12 +65,6 @@
   </si>
   <si>
     <t>UBS vcard:postal-code co_cep</t>
-  </si>
-  <si>
-    <t>vcard:region</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/2006/vcard/ns#region</t>
   </si>
   <si>
     <t>UBS vcard:region uf</t>
@@ -131,42 +128,62 @@
     <t>vcge:unidade-basica-saude</t>
   </si>
   <si>
-    <t>Individual</t>
-  </si>
-  <si>
     <t>http://vocab.e.gov.br/2011/03/vcge#unidade-basica-saude</t>
   </si>
   <si>
     <t>UBS owl:SameAs vcge:unidade-basica-saude</t>
+  </si>
+  <si>
+    <t>vcard:hasLocality</t>
+  </si>
+  <si>
+    <t>Object Property</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2006/vcard/ns#hasLocality</t>
+  </si>
+  <si>
+    <t>vcard:hasRegion</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2006/vcard/ns#hasRegion</t>
+  </si>
+  <si>
+    <t>Classe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -174,7 +191,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -183,45 +200,64 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -411,29 +447,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.57"/>
-    <col customWidth="1" min="2" max="2" width="15.86"/>
-    <col customWidth="1" min="3" max="3" width="12.57"/>
-    <col customWidth="1" min="4" max="4" width="51.14"/>
-    <col customWidth="1" min="5" max="5" width="55.43"/>
-    <col customWidth="1" min="6" max="6" width="12.71"/>
-    <col customWidth="1" min="7" max="7" width="17.0"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
+    <col min="5" max="5" width="55.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,222 +497,224 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="E8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="E9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>13</v>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" location="locality" ref="D2"/>
-    <hyperlink r:id="rId2" location="postal-code" ref="D3"/>
-    <hyperlink r:id="rId3" location="region" ref="D4"/>
-    <hyperlink r:id="rId4" location="street-address" ref="D5"/>
-    <hyperlink r:id="rId5" location="hasPhoneNumber" ref="D6"/>
-    <hyperlink r:id="rId6" location="lat" ref="D7"/>
-    <hyperlink r:id="rId7" location="long" ref="D8"/>
-    <hyperlink r:id="rId8" location="postalCode" ref="D9"/>
-    <hyperlink r:id="rId9" location="unidade-basica-saude" ref="D10"/>
+    <hyperlink ref="D2" r:id="rId1" location="locality" display="http://www.w3.org/2006/vcard/ns - locality" xr:uid="{2E84D6F3-2849-4F74-8CC8-31B67A0FAA43}"/>
+    <hyperlink ref="D3" r:id="rId2" location="postal-code" display="http://www.w3.org/2006/vcard/ns - postal-code" xr:uid="{6F4E0708-FE9C-4E56-86E9-D83BAA5230F2}"/>
+    <hyperlink ref="D4" r:id="rId3" location="hasRegion" display="http://www.w3.org/2006/vcard/ns - hasRegion" xr:uid="{F99C2199-B1AE-4CC3-9B69-0822E3B4EE04}"/>
+    <hyperlink ref="D5" r:id="rId4" location="street-address" display="http://www.w3.org/2006/vcard/ns - street-address" xr:uid="{F48AFE4A-C53C-4323-BA30-AA1A5EEF4E0B}"/>
+    <hyperlink ref="D6" r:id="rId5" location="hasPhoneNumber" display="http://ontology.eil.utoronto.ca/icontact.owl - hasPhoneNumber" xr:uid="{3D540CED-C330-4015-97A2-43B4A538F02C}"/>
+    <hyperlink ref="D7" r:id="rId6" location="lat" display="https://www.geonames.org/ontology - lat" xr:uid="{501DE314-FC71-4B46-B564-A0CD353A3BDE}"/>
+    <hyperlink ref="D8" r:id="rId7" location="long" display="https://www.geonames.org/ontology - long" xr:uid="{73CACF04-E2F4-413D-951E-B3453C12D612}"/>
+    <hyperlink ref="D9" r:id="rId8" location="postalCode" display="https://www.geonames.org/ontology - postalCode" xr:uid="{FD50159B-49A4-489E-B636-1CB1051B3E51}"/>
+    <hyperlink ref="D10" r:id="rId9" location="unidade-basica-saude" display="http://vocab.e.gov.br/2011/03/vcge - unidade-basica-saude" xr:uid="{81B299AE-D886-4454-BF16-39FB49193B89}"/>
   </hyperlinks>
-  <drawing r:id="rId10"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>